--- a/coarse_taxa.xlsx
+++ b/coarse_taxa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tumha\Desktop\Lab Work\R_packages\ecomaestro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A97A6A7-A2A9-4DE3-AFB3-6E50FC7394E3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5763B8-0C0E-4638-A8C0-4F7B1850F512}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="49">
   <si>
     <t>Taxon</t>
   </si>
@@ -37,9 +37,6 @@
     <t>Scaphopoda</t>
   </si>
   <si>
-    <t>Echiura</t>
-  </si>
-  <si>
     <t>Annelida</t>
   </si>
   <si>
@@ -61,9 +58,6 @@
     <t>Pycnogonida</t>
   </si>
   <si>
-    <t>Cirripedia</t>
-  </si>
-  <si>
     <t>Bryozoa</t>
   </si>
   <si>
@@ -79,9 +73,6 @@
     <t>Cephalochordata</t>
   </si>
   <si>
-    <t>Tunicata</t>
-  </si>
-  <si>
     <t>Actiniaria</t>
   </si>
   <si>
@@ -118,9 +109,6 @@
     <t>Osteichthyes</t>
   </si>
   <si>
-    <t>Vertebrata</t>
-  </si>
-  <si>
     <t>Echinoidea</t>
   </si>
   <si>
@@ -154,9 +142,6 @@
     <t>Entoprocta</t>
   </si>
   <si>
-    <t>Polyplacophora</t>
-  </si>
-  <si>
     <t>Bivalvia</t>
   </si>
   <si>
@@ -176,6 +161,12 @@
   </si>
   <si>
     <t>Others</t>
+  </si>
+  <si>
+    <t>Scleractinia</t>
+  </si>
+  <si>
+    <t>Cnidarian</t>
   </si>
 </sst>
 </file>
@@ -562,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -583,51 +574,51 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" t="s">
         <v>5</v>
       </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>6</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -635,10 +626,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -646,10 +637,10 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -657,109 +648,109 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -770,56 +761,56 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B19" t="s">
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B20" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
         <v>18</v>
       </c>
-      <c r="B21" t="s">
-        <v>17</v>
-      </c>
       <c r="C21" t="s">
-        <v>51</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>51</v>
+        <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B23" t="s">
         <v>21</v>
@@ -830,7 +821,7 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>21</v>
@@ -841,62 +832,62 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="C25" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="B27" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C27" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>33</v>
+        <v>4</v>
       </c>
       <c r="B28" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="C28" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
-        <v>43</v>
+        <v>3</v>
       </c>
       <c r="C29" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>2</v>
+        <v>40</v>
       </c>
       <c r="B30" t="s">
         <v>3</v>
@@ -907,54 +898,54 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>41</v>
       </c>
       <c r="B31" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
       <c r="C31" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B32" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="C32" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B33" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B34" t="s">
-        <v>3</v>
+        <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>3</v>
+        <v>46</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C35" t="s">
         <v>46</v>
@@ -962,24 +953,24 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="B36" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>28</v>
+        <v>46</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B37" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -987,47 +978,14 @@
         <v>47</v>
       </c>
       <c r="B38" t="s">
-        <v>47</v>
+        <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>30</v>
-      </c>
-      <c r="B39" t="s">
-        <v>30</v>
-      </c>
-      <c r="C39" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
         <v>48</v>
       </c>
-      <c r="B40" t="s">
-        <v>48</v>
-      </c>
-      <c r="C40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" t="s">
-        <v>32</v>
-      </c>
-      <c r="C41" t="s">
-        <v>51</v>
-      </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C42">
+  <sortState ref="A2:C38">
     <sortCondition ref="B1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/coarse_taxa.xlsx
+++ b/coarse_taxa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tumha\Desktop\Lab Work\R_packages\ecomaestro\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B5763B8-0C0E-4638-A8C0-4F7B1850F512}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C95FAC5-A9E4-4138-BF55-6AA0B35061A4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -154,9 +154,6 @@
     <t>Tardigrada</t>
   </si>
   <si>
-    <t>Simple</t>
-  </si>
-  <si>
     <t>Crustacea</t>
   </si>
   <si>
@@ -167,6 +164,9 @@
   </si>
   <si>
     <t>Cnidarian</t>
+  </si>
+  <si>
+    <t>Group</t>
   </si>
 </sst>
 </file>
@@ -555,8 +555,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="81" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -574,7 +574,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -607,7 +607,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -618,7 +618,7 @@
         <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -629,7 +629,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -640,7 +640,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -651,7 +651,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -662,7 +662,7 @@
         <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -673,7 +673,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -684,7 +684,7 @@
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
@@ -695,7 +695,7 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
@@ -706,7 +706,7 @@
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
@@ -717,7 +717,7 @@
         <v>7</v>
       </c>
       <c r="C14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -728,7 +728,7 @@
         <v>7</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -739,7 +739,7 @@
         <v>12</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -750,7 +750,7 @@
         <v>13</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -761,7 +761,7 @@
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -772,7 +772,7 @@
         <v>15</v>
       </c>
       <c r="C19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -849,7 +849,7 @@
         <v>39</v>
       </c>
       <c r="C26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -926,7 +926,7 @@
         <v>26</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -937,7 +937,7 @@
         <v>42</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -948,7 +948,7 @@
         <v>27</v>
       </c>
       <c r="C35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -959,7 +959,7 @@
         <v>43</v>
       </c>
       <c r="C36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -970,18 +970,18 @@
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B38" t="s">
         <v>18</v>
       </c>
       <c r="C38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
